--- a/resultados_socioeducativo.xlsx
+++ b/resultados_socioeducativo.xlsx
@@ -10939,7 +10939,7 @@
         <v>0.2005799903334944</v>
       </c>
       <c r="EE7" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="EF7" t="s">
         <v>122</v>
@@ -13763,7 +13763,7 @@
         <v>0.2005799903334944</v>
       </c>
       <c r="EE9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="EF9" t="s">
         <v>541</v>
@@ -20823,7 +20823,7 @@
         <v>0.2005799903334944</v>
       </c>
       <c r="EE14" t="s">
-        <v>122</v>
+        <v>541</v>
       </c>
       <c r="EF14" t="s">
         <v>541</v>
@@ -47651,7 +47651,7 @@
         <v>0.2005799903334944</v>
       </c>
       <c r="EE33" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="EF33" t="s">
         <v>541</v>
@@ -49063,7 +49063,7 @@
         <v>0.2005799903334944</v>
       </c>
       <c r="EE34" t="s">
-        <v>542</v>
+        <v>122</v>
       </c>
       <c r="EF34" t="s">
         <v>122</v>
@@ -54714,7 +54714,7 @@
         <v>541</v>
       </c>
       <c r="EF38" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="EG38" t="s">
         <v>541</v>
@@ -56126,7 +56126,7 @@
         <v>122</v>
       </c>
       <c r="EF39" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="EG39" t="s">
         <v>541</v>
@@ -60362,7 +60362,7 @@
         <v>542</v>
       </c>
       <c r="EF42" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="EG42" t="s">
         <v>541</v>
@@ -63186,7 +63186,7 @@
         <v>543</v>
       </c>
       <c r="EF44" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="EG44" t="s">
         <v>541</v>
@@ -64598,7 +64598,7 @@
         <v>122</v>
       </c>
       <c r="EF45" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="EG45" t="s">
         <v>541</v>
@@ -66010,7 +66010,7 @@
         <v>541</v>
       </c>
       <c r="EF46" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="EG46" t="s">
         <v>541</v>
@@ -67422,7 +67422,7 @@
         <v>542</v>
       </c>
       <c r="EF47" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="EG47" t="s">
         <v>541</v>
@@ -70246,7 +70246,7 @@
         <v>541</v>
       </c>
       <c r="EF49" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="EG49" t="s">
         <v>541</v>
@@ -71658,7 +71658,7 @@
         <v>543</v>
       </c>
       <c r="EF50" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="EG50" t="s">
         <v>541</v>
@@ -87187,7 +87187,7 @@
         <v>0.2005799903334944</v>
       </c>
       <c r="EE61" t="s">
-        <v>540</v>
+        <v>122</v>
       </c>
       <c r="EF61" t="s">
         <v>122</v>
@@ -91423,7 +91423,7 @@
         <v>0.2005799903334944</v>
       </c>
       <c r="EE64" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="EF64" t="s">
         <v>122</v>
